--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_4.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_4.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_4.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-276834.4728682037</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8732945.182477079</v>
+        <v>7865273.950135166</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33139445.582195</v>
+        <v>32271774.34985308</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.331658575963315e-10</v>
+        <v>451022.324229075</v>
       </c>
     </row>
     <row r="11">
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,19 +8373,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8865,10 +8865,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10281,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10752,10 +10752,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22670,10 +22670,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q3" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R3" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S3" t="n">
         <v>195.63287444794</v>
@@ -22728,7 +22728,7 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J4" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K4" t="n">
         <v>157.3961749680531</v>
@@ -22749,7 +22749,7 @@
         <v>168.0281649399601</v>
       </c>
       <c r="Q4" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R4" t="n">
         <v>211.6331360021768</v>
@@ -22910,7 +22910,7 @@
         <v>170.7777643849463</v>
       </c>
       <c r="R6" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S6" t="n">
         <v>195.63287444794</v>
@@ -22965,19 +22965,19 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J7" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K7" t="n">
         <v>157.3961749680531</v>
       </c>
       <c r="L7" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M7" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N7" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O7" t="n">
         <v>168.9169769112482</v>
@@ -22986,7 +22986,7 @@
         <v>168.0281649399601</v>
       </c>
       <c r="Q7" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R7" t="n">
         <v>211.6331360021768</v>
@@ -23120,13 +23120,13 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>169.0363433314465</v>
@@ -23141,13 +23141,13 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
         <v>195.63287444794</v>
@@ -23205,7 +23205,7 @@
         <v>154.9344141560632</v>
       </c>
       <c r="K10" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L10" t="n">
         <v>164.5593050631107</v>
@@ -23439,16 +23439,16 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J13" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K13" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L13" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M13" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N13" t="n">
         <v>155.7763642475845</v>
@@ -23457,10 +23457,10 @@
         <v>168.9169769112482</v>
       </c>
       <c r="P13" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q13" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R13" t="n">
         <v>211.6331360021768</v>
@@ -23533,7 +23533,7 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O14" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P14" t="n">
         <v>282.1042548214289</v>
@@ -23685,7 +23685,7 @@
         <v>164.5593050631107</v>
       </c>
       <c r="M16" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N16" t="n">
         <v>155.7763642475845</v>
@@ -23913,28 +23913,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J19" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K19" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L19" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M19" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N19" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O19" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P19" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q19" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R19" t="n">
         <v>211.6331360021768</v>
@@ -24168,7 +24168,7 @@
         <v>168.9169769112482</v>
       </c>
       <c r="P22" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q22" t="n">
         <v>184.8361019879239</v>
@@ -24305,10 +24305,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I24" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J24" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K24" t="n">
         <v>168.166555548718</v>
@@ -24329,7 +24329,7 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q24" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R24" t="n">
         <v>177.728994836036</v>
@@ -24390,25 +24390,25 @@
         <v>154.9344141560632</v>
       </c>
       <c r="K25" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L25" t="n">
         <v>164.5593050631107</v>
       </c>
       <c r="M25" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N25" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O25" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P25" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q25" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R25" t="n">
         <v>211.6331360021768</v>
@@ -24466,13 +24466,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J26" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K26" t="n">
         <v>268.5096182748763</v>
       </c>
       <c r="L26" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M26" t="n">
         <v>281.0224045372727</v>
@@ -24481,16 +24481,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O26" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P26" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q26" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R26" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S26" t="n">
         <v>236.785106778059</v>
@@ -24566,7 +24566,7 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q27" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R27" t="n">
         <v>177.728994836036</v>
@@ -24873,7 +24873,7 @@
         <v>169.4894564160782</v>
       </c>
       <c r="N31" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O31" t="n">
         <v>168.9169769112482</v>
@@ -24961,7 +24961,7 @@
         <v>282.1042548214289</v>
       </c>
       <c r="Q32" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R32" t="n">
         <v>263.0143561332412</v>
@@ -25016,7 +25016,7 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I33" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J33" t="n">
         <v>154.7419045333334</v>
@@ -25040,10 +25040,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q33" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R33" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S33" t="n">
         <v>195.63287444794</v>
@@ -25253,7 +25253,7 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I36" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J36" t="n">
         <v>154.7419045333334</v>
@@ -25280,7 +25280,7 @@
         <v>170.7777643849463</v>
       </c>
       <c r="R36" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S36" t="n">
         <v>195.63287444794</v>
@@ -25335,7 +25335,7 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J37" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K37" t="n">
         <v>157.3961749680531</v>
@@ -25344,10 +25344,10 @@
         <v>164.5593050631107</v>
       </c>
       <c r="M37" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N37" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O37" t="n">
         <v>168.9169769112482</v>
@@ -25356,7 +25356,7 @@
         <v>168.0281649399601</v>
       </c>
       <c r="Q37" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R37" t="n">
         <v>211.6331360021768</v>
@@ -25438,7 +25438,7 @@
         <v>271.2129416468284</v>
       </c>
       <c r="R38" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S38" t="n">
         <v>236.785106778059</v>
@@ -25490,10 +25490,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I39" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J39" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K39" t="n">
         <v>168.166555548718</v>
@@ -25514,10 +25514,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q39" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R39" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S39" t="n">
         <v>195.63287444794</v>
@@ -25572,28 +25572,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J40" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K40" t="n">
         <v>157.3961749680531</v>
       </c>
       <c r="L40" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M40" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N40" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O40" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P40" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q40" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R40" t="n">
         <v>211.6331360021768</v>
@@ -25654,7 +25654,7 @@
         <v>220.8760035225573</v>
       </c>
       <c r="K41" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L41" t="n">
         <v>287.6350262633844</v>
@@ -25672,10 +25672,10 @@
         <v>282.1042548214289</v>
       </c>
       <c r="Q41" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R41" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S41" t="n">
         <v>236.785106778059</v>
@@ -25730,10 +25730,10 @@
         <v>121.4173036</v>
       </c>
       <c r="J42" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K42" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>169.0363433314465</v>
@@ -25751,10 +25751,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q42" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R42" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S42" t="n">
         <v>195.63287444794</v>
@@ -25809,28 +25809,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J43" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K43" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L43" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M43" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N43" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O43" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P43" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q43" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R43" t="n">
         <v>211.6331360021768</v>
@@ -25912,7 +25912,7 @@
         <v>271.2129416468284</v>
       </c>
       <c r="R44" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S44" t="n">
         <v>236.785106778059</v>
@@ -26046,28 +26046,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J46" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K46" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L46" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M46" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N46" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O46" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P46" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q46" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R46" t="n">
         <v>211.6331360021768</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.881279215216636e-11</v>
+        <v>15197.47366105164</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.881279215216636e-11</v>
+        <v>19108.12249418701</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.881279215216636e-11</v>
+        <v>47012.26833386921</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.881279215216636e-11</v>
+        <v>18818.57564064131</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.881279215216636e-11</v>
+        <v>39792.23441915044</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.881279215216636e-11</v>
+        <v>28062.30194228621</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.881279215216636e-11</v>
+        <v>3726.829178971412</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.881279215216636e-11</v>
+        <v>39536.93402458525</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.881279215216636e-11</v>
+        <v>153748.8122162142</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.881279215216636e-11</v>
+        <v>4742.993709947968</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.881279215216636e-11</v>
+        <v>32397.68424611974</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.881279215216636e-11</v>
+        <v>15116.85815037352</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.881279215216636e-11</v>
+        <v>50240.64698331137</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.881279215216636e-11</v>
+        <v>114465.8107391895</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.881279215216636e-11</v>
+        <v>34079.02922286341</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>856.1956992141787</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1076.513943334481</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2648.578497682775</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1060.201444543174</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2241.816023614111</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1580.974757311902</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>209.9622072659967</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2227.432902793537</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8661.904913589533</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>267.2109132365069</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1825.221647668721</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>851.6539803027355</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2830.458984975292</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6448.778069813492</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1919.945308330335</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1070.244624017723</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1345.642429168101</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3310.72312210347</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1325.251805678968</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2802.270029517639</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1976.218446639877</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>262.4527590824958</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2784.291128491921</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10827.38114198692</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>334.0136415456337</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2281.527059585902</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1064.567475378419</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3538.073731219115</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>8060.972587266868</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2399.931635412918</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.5637214634</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.5637214634</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-22092.9637214634</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-22092.9637214634</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-22092.9637214634</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-22092.9637214634</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
     </row>
   </sheetData>
